--- a/射出検定資料/条件表記憶シート.xlsx
+++ b/射出検定資料/条件表記憶シート.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>シリンダ温度（℃）</t>
     <rPh sb="4" eb="6">
@@ -361,36 +361,69 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PS（色替）</t>
-    <rPh sb="3" eb="5">
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PS成形</t>
+    <rPh sb="2" eb="4">
+      <t>セイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC成形</t>
+    <rPh sb="2" eb="4">
+      <t>セイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE→PS
+（色替）</t>
+    <rPh sb="7" eb="9">
       <t>イロガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PS→PC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC→PE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
+    <t>PS→PC
+(色替)</t>
+    <rPh sb="7" eb="9">
+      <t>イロガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC→PE
+(色替)</t>
+    <rPh sb="7" eb="9">
+      <t>イロガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE
+パージ見本</t>
+    <rPh sb="6" eb="8">
+      <t>ミホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初回</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温度変更</t>
+    <rPh sb="0" eb="4">
+      <t>オンドヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -415,15 +448,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -694,27 +745,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -722,8 +771,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -731,32 +778,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,6 +868,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1062,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1073,481 +1183,515 @@
     <col min="1" max="1" width="9" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="9" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="4" max="10" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:12" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="20" t="s">
+    <row r="1" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" s="8" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="22"/>
       <c r="L2" s="23"/>
-    </row>
-    <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="25"/>
-    </row>
-    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="4"/>
-      <c r="C4" s="8" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="20"/>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="25"/>
-    </row>
-    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="4"/>
-      <c r="C5" s="8" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="20"/>
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="4"/>
-      <c r="C6" s="8" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="20"/>
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="25"/>
-    </row>
-    <row r="7" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="21"/>
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="8" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="25"/>
-    </row>
-    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="7" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="25"/>
-    </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="7" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="25"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="8" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="25"/>
-    </row>
-    <row r="15" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="25"/>
-    </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="8" t="s">
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="25"/>
-    </row>
-    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="8" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="25"/>
-    </row>
-    <row r="19" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="10" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="11" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="25"/>
-    </row>
-    <row r="22" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="11" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="25"/>
-    </row>
-    <row r="23" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="12" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="25"/>
-    </row>
-    <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="10" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="25"/>
-    </row>
-    <row r="25" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="25"/>
-    </row>
-    <row r="26" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="25"/>
-    </row>
-    <row r="27" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="9" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="21"/>
+      <c r="C27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="28"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
+  <mergeCells count="29">
+    <mergeCell ref="K15:M15"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/射出検定資料/条件表記憶シート.xlsx
+++ b/射出検定資料/条件表記憶シート.xlsx
@@ -414,16 +414,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初回</t>
-    <rPh sb="0" eb="2">
-      <t>ショカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>温度変更</t>
     <rPh sb="0" eb="4">
       <t>オンドヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段取り</t>
+    <rPh sb="0" eb="2">
+      <t>ダンド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -432,7 +432,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="6">
+    <numFmt numFmtId="177" formatCode="#\℃"/>
+    <numFmt numFmtId="180" formatCode="#&quot;s&quot;"/>
+    <numFmt numFmtId="181" formatCode="#&quot;mm&quot;"/>
+    <numFmt numFmtId="182" formatCode="#&quot;MPa&quot;"/>
+    <numFmt numFmtId="183" formatCode="#&quot;rpm&quot;"/>
+    <numFmt numFmtId="184" formatCode="#&quot;mm/s&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +450,24 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -762,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -778,6 +804,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,6 +831,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,70 +864,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,7 +1273,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1188,120 +1286,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="2" spans="2:13" s="8" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="20"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="20"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="21"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -1310,16 +1408,16 @@
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
@@ -1328,16 +1426,16 @@
       <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
@@ -1346,16 +1444,16 @@
       <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -1364,16 +1462,16 @@
       <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
@@ -1382,16 +1480,16 @@
       <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
@@ -1400,16 +1498,16 @@
       <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
@@ -1418,16 +1516,16 @@
       <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
@@ -1436,16 +1534,16 @@
       <c r="C15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
@@ -1454,16 +1552,16 @@
       <c r="C16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
@@ -1472,16 +1570,16 @@
       <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
     </row>
     <row r="18" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
@@ -1490,16 +1588,16 @@
       <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
@@ -1508,16 +1606,16 @@
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
@@ -1526,16 +1624,16 @@
       <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
@@ -1544,16 +1642,16 @@
       <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="15"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="22" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
@@ -1562,16 +1660,16 @@
       <c r="C22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
@@ -1580,16 +1678,16 @@
       <c r="C23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
@@ -1598,16 +1696,16 @@
       <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
     </row>
     <row r="25" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
@@ -1616,53 +1714,66 @@
       <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
     </row>
     <row r="26" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
     </row>
     <row r="27" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="21"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="18"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B26:B27"/>
@@ -1679,19 +1790,6 @@
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
